--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317355.5193020021</v>
+        <v>313375.4386156394</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6651464.783235259</v>
+        <v>6651464.78323526</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>327.6755980356106</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>184.5077471891694</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -746,7 +746,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631583</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -797,7 +797,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
@@ -825,13 +825,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.25460916009971</v>
+        <v>104.3987087711944</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -949,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>210.2989529372394</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.750751431542</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>138.3792129943166</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>169.016847353155</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1186,7 +1186,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1195,10 +1195,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>284.1247554345483</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>402.3743020448612</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.6513625624437</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>212.0712218579289</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.9780703090439</v>
       </c>
       <c r="H11" t="n">
-        <v>67.65538200560648</v>
+        <v>272.4217836655541</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.9606135828359</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3301761740106</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>23.39452688282303</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>147.1022126635735</v>
       </c>
       <c r="T13" t="n">
-        <v>202.4140860924266</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U13" t="n">
         <v>275.615660591221</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.0346945768795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>43.69727590664095</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5221469772661</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>202.5953163377954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3301761740106</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>133.122498409159</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.1022126635735</v>
       </c>
       <c r="T16" t="n">
-        <v>210.8243515334526</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>163.4656930879642</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>260.7455801209501</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.2880856410603</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>47.44491046712613</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>152.4894809003088</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2013,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>144.1154370654966</v>
       </c>
       <c r="T19" t="n">
-        <v>223.5998903046437</v>
+        <v>240.1025750474395</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6063123107888</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2089,10 +2089,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>428.5654055194356</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>394.693954081089</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2241,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>58.19776677432663</v>
       </c>
       <c r="D22" t="n">
-        <v>146.317988865495</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>163.1587910327543</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.598728698716</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>64.41973607793209</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>144.1154370654966</v>
       </c>
       <c r="T22" t="n">
         <v>240.1025750474395</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6063123107888</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>45.34737150609945</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>189.9022752396661</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>43.36489997156745</v>
       </c>
       <c r="T23" t="n">
         <v>210.2880856410603</v>
@@ -2377,10 +2377,10 @@
         <v>256.4915810754176</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>268.5088706367226</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>43.36489997156745</v>
       </c>
       <c r="T26" t="n">
-        <v>182.5898761965637</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4915810754176</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>127.2076866636913</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>163.1587910327543</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.598728698716</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>11.15628988461231</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.1025750474395</v>
+        <v>119.6601362333358</v>
       </c>
       <c r="U28" t="n">
         <v>275.6063123107888</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>66.77021596457895</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>208.2103269111608</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>210.2880856410603</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4915810754176</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.1587910327543</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>11.15628988461236</v>
+        <v>131.598728698716</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>64.41973607793209</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>221.2344532606401</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>43.36489997156745</v>
       </c>
       <c r="T32" t="n">
-        <v>24.13041848549911</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>57.95545147188393</v>
       </c>
     </row>
     <row r="33">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>30.19964385186982</v>
+        <v>109.8953448394345</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>64.41973607793209</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>144.1154370654966</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.1025750474395</v>
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>57.08456653083285</v>
+        <v>34.87819480863833</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3444,7 +3444,7 @@
         <v>131.598728698716</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.41973607793209</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>43.77677405638894</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.1025750474395</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>84.4439654775357</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,13 +3514,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>3.547373765739013</v>
       </c>
       <c r="G38" t="n">
-        <v>191.8022613722403</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>268.5088706367226</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>43.36489997156745</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>30.19964385186982</v>
+        <v>163.1587910327543</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>144.1154370654966</v>
+        <v>11.15628988461231</v>
       </c>
       <c r="T40" t="n">
         <v>240.1025750474395</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.6526208037725</v>
       </c>
       <c r="H41" t="n">
         <v>268.5088706367226</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>43.36489997156745</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.2880856410603</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4915810754176</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>130.9991877649217</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>35.20304800813459</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.1587910327543</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.598728698716</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>40.06278607525417</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>144.1154370654966</v>
       </c>
       <c r="T43" t="n">
-        <v>185.6318025759641</v>
+        <v>240.1025750474395</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3982,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>268.5088706367226</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>43.36489997156745</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2880856410603</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4915810754176</v>
+        <v>66.4469604498002</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>110.0754888789812</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.1587910327543</v>
+        <v>45.81281558600188</v>
       </c>
       <c r="H46" t="n">
         <v>131.598728698716</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>64.41973607793209</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>144.1154370654966</v>
       </c>
       <c r="T46" t="n">
         <v>240.1025750474395</v>
@@ -4194,10 +4194,10 @@
         <v>275.6063123107888</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>134.5860003445605</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4330,25 +4330,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.581027453021</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X2" t="n">
-        <v>584.4385640323317</v>
+        <v>180.3981599919276</v>
       </c>
       <c r="Y2" t="n">
-        <v>580.1928443723891</v>
+        <v>176.1524403319851</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1294.102365436318</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>738.2975308660841</v>
+        <v>477.8366140998854</v>
       </c>
       <c r="C4" t="n">
-        <v>565.7358193493091</v>
+        <v>305.2749025831103</v>
       </c>
       <c r="D4" t="n">
-        <v>399.8578265508318</v>
+        <v>139.396909784633</v>
       </c>
       <c r="E4" t="n">
-        <v>230.099822801569</v>
+        <v>139.396909784633</v>
       </c>
       <c r="F4" t="n">
-        <v>53.39276876332522</v>
+        <v>139.396909784633</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4494,10 +4494,10 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N4" t="n">
         <v>761.8145120199619</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>983.6892855326716</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>738.2975308660841</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y4" t="n">
-        <v>738.2975308660841</v>
+        <v>477.8366140998854</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874814</v>
+        <v>550.6055673650617</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>516.503498588889</v>
       </c>
       <c r="D5" t="n">
         <v>87.92182432615731</v>
@@ -4567,19 +4567,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4597,22 +4597,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1134.24202645431</v>
+        <v>1401.108371479164</v>
       </c>
       <c r="W5" t="n">
-        <v>729.3865718653431</v>
+        <v>1400.293320930601</v>
       </c>
       <c r="X5" t="n">
-        <v>310.2441084446538</v>
+        <v>1385.191261550316</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.1524403319851</v>
+        <v>976.9051378499695</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433.2298803720686</v>
+        <v>173.7206514241503</v>
       </c>
       <c r="C7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4728,19 +4728,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4752,25 +4752,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>592.9589408290292</v>
       </c>
       <c r="Y7" t="n">
-        <v>433.2298803720686</v>
+        <v>365.5392701431375</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.0234284442651</v>
+        <v>557.9336779278854</v>
       </c>
       <c r="C8" t="n">
-        <v>408.9213596680925</v>
+        <v>523.8316091517128</v>
       </c>
       <c r="D8" t="n">
-        <v>377.0519788829411</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E8" t="n">
-        <v>347.3176380816403</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
         <v>34.36045797446834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4834,22 +4834,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V8" t="n">
-        <v>771.6250763881362</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W8" t="n">
-        <v>484.6303739289966</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X8" t="n">
-        <v>469.5283145487113</v>
+        <v>584.4385640323317</v>
       </c>
       <c r="Y8" t="n">
-        <v>465.2825948887688</v>
+        <v>580.1928443723891</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,22 +4886,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="O9" t="n">
+        <v>739.9048540962709</v>
+      </c>
+      <c r="P9" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>592.9589408290292</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>592.9589408290292</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4965,19 +4965,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>120.5233537662982</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>540.5762527112014</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>960.6291516561047</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4995,19 +4995,19 @@
         <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V10" t="n">
-        <v>1675.765608785789</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W10" t="n">
-        <v>1461.55225337374</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X10" t="n">
-        <v>1216.160498707152</v>
+        <v>592.9589408290292</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>592.9589408290292</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.2824383042412</v>
+        <v>1063.939336778075</v>
       </c>
       <c r="C11" t="n">
-        <v>102.2824383042412</v>
+        <v>1063.939336778075</v>
       </c>
       <c r="D11" t="n">
-        <v>102.2824383042412</v>
+        <v>635.3576625153437</v>
       </c>
       <c r="E11" t="n">
-        <v>102.2824383042412</v>
+        <v>635.3576625153437</v>
       </c>
       <c r="F11" t="n">
-        <v>102.2824383042412</v>
+        <v>635.3576625153437</v>
       </c>
       <c r="G11" t="n">
-        <v>102.2824383042412</v>
+        <v>309.1171874557034</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5044,19 +5044,19 @@
         <v>198.3915302050083</v>
       </c>
       <c r="K11" t="n">
-        <v>368.2933687921387</v>
+        <v>368.2933687921386</v>
       </c>
       <c r="L11" t="n">
-        <v>579.0716233077372</v>
+        <v>579.0716233077374</v>
       </c>
       <c r="M11" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780561</v>
       </c>
       <c r="N11" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O11" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P11" t="n">
         <v>1469.044845016103</v>
@@ -5071,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="W11" t="n">
-        <v>929.7110254252771</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="X11" t="n">
-        <v>510.5685620045878</v>
+        <v>1063.939336778075</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.2824383042412</v>
+        <v>1063.939336778075</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>84.61243668840937</v>
       </c>
       <c r="J12" t="n">
-        <v>152.130697810494</v>
+        <v>476.6890227767062</v>
       </c>
       <c r="K12" t="n">
-        <v>267.5301602185432</v>
+        <v>708.6783161425043</v>
       </c>
       <c r="L12" t="n">
-        <v>422.6989786043561</v>
+        <v>863.8471345283174</v>
       </c>
       <c r="M12" t="n">
-        <v>603.7736708202619</v>
+        <v>1044.921826744223</v>
       </c>
       <c r="N12" t="n">
-        <v>1023.826569765165</v>
+        <v>1230.789027258521</v>
       </c>
       <c r="O12" t="n">
-        <v>1193.858746130688</v>
+        <v>1400.821203624044</v>
       </c>
       <c r="P12" t="n">
-        <v>1330.324557965483</v>
+        <v>1537.287015458839</v>
       </c>
       <c r="Q12" t="n">
-        <v>1511.338018604792</v>
+        <v>1628.510796699132</v>
       </c>
       <c r="R12" t="n">
         <v>1672.881462148471</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>222.5544797701272</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>222.5544797701272</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>222.5544797701272</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>222.5544797701272</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>222.5544797701272</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>57.57450383678312</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>57.57450383678312</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>76.30245582865298</v>
+        <v>162.8821409933428</v>
       </c>
       <c r="K13" t="n">
-        <v>145.9109553479574</v>
+        <v>507.2490950837828</v>
       </c>
       <c r="L13" t="n">
-        <v>565.9638542928607</v>
+        <v>782.6184676270011</v>
       </c>
       <c r="M13" t="n">
-        <v>659.8808618993838</v>
+        <v>876.5354752335243</v>
       </c>
       <c r="N13" t="n">
-        <v>751.5647329798574</v>
+        <v>968.2193463139978</v>
       </c>
       <c r="O13" t="n">
-        <v>1171.617631924761</v>
+        <v>1052.904240721364</v>
       </c>
       <c r="P13" t="n">
-        <v>1591.587082828187</v>
+        <v>1472.873691624791</v>
       </c>
       <c r="Q13" t="n">
         <v>1691.235784882888</v>
@@ -5229,22 +5229,22 @@
         <v>1548.595336480848</v>
       </c>
       <c r="T13" t="n">
-        <v>1344.136663660215</v>
+        <v>1305.327804142842</v>
       </c>
       <c r="U13" t="n">
-        <v>1065.737006497366</v>
+        <v>1026.928146979993</v>
       </c>
       <c r="V13" t="n">
-        <v>778.7814983677961</v>
+        <v>739.9726388504232</v>
       </c>
       <c r="W13" t="n">
-        <v>506.7550939540876</v>
+        <v>467.9462344367147</v>
       </c>
       <c r="X13" t="n">
-        <v>261.3633392875001</v>
+        <v>222.5544797701272</v>
       </c>
       <c r="Y13" t="n">
-        <v>33.94366860160834</v>
+        <v>222.5544797701272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462.52534286434</v>
+        <v>1290.427817482283</v>
       </c>
       <c r="C14" t="n">
-        <v>462.52534286434</v>
+        <v>1290.427817482283</v>
       </c>
       <c r="D14" t="n">
-        <v>462.52534286434</v>
+        <v>1290.427817482283</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>861.8461432195515</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="G14" t="n">
         <v>33.94366860160834</v>
@@ -5275,31 +5275,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
-        <v>85.02847154687531</v>
+        <v>85.02847154687562</v>
       </c>
       <c r="J14" t="n">
-        <v>198.3915302050081</v>
+        <v>198.3915302050083</v>
       </c>
       <c r="K14" t="n">
-        <v>368.2933687921383</v>
+        <v>368.2933687921387</v>
       </c>
       <c r="L14" t="n">
-        <v>579.0716233077369</v>
+        <v>579.0716233077374</v>
       </c>
       <c r="M14" t="n">
-        <v>813.6030440780557</v>
+        <v>813.6030440780561</v>
       </c>
       <c r="N14" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O14" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P14" t="n">
-        <v>1469.044845016102</v>
+        <v>1469.044845016103</v>
       </c>
       <c r="Q14" t="n">
-        <v>1613.281844096129</v>
+        <v>1613.28184409613</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1653.044767548457</v>
       </c>
       <c r="U14" t="n">
-        <v>1438.070150305401</v>
+        <v>1653.044767548457</v>
       </c>
       <c r="V14" t="n">
-        <v>1075.453200239227</v>
+        <v>1290.427817482283</v>
       </c>
       <c r="W14" t="n">
-        <v>870.8114665646865</v>
+        <v>1290.427817482283</v>
       </c>
       <c r="X14" t="n">
-        <v>870.8114665646865</v>
+        <v>1290.427817482283</v>
       </c>
       <c r="Y14" t="n">
-        <v>462.52534286434</v>
+        <v>1290.427817482283</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>84.61243668840937</v>
       </c>
       <c r="J15" t="n">
-        <v>476.1060756401154</v>
+        <v>476.6890227767062</v>
       </c>
       <c r="K15" t="n">
-        <v>591.5055380481646</v>
+        <v>592.0884851847554</v>
       </c>
       <c r="L15" t="n">
-        <v>746.6743564339777</v>
+        <v>747.2573035705684</v>
       </c>
       <c r="M15" t="n">
-        <v>927.7490486498834</v>
+        <v>928.3319957864742</v>
       </c>
       <c r="N15" t="n">
-        <v>1113.616249164181</v>
+        <v>1114.199196300772</v>
       </c>
       <c r="O15" t="n">
-        <v>1283.648425529704</v>
+        <v>1284.231372666295</v>
       </c>
       <c r="P15" t="n">
-        <v>1420.114237364499</v>
+        <v>1420.697184501089</v>
       </c>
       <c r="Q15" t="n">
-        <v>1511.338018604792</v>
+        <v>1511.920965741382</v>
       </c>
       <c r="R15" t="n">
         <v>1672.881462148471</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.8558724327206</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C16" t="n">
-        <v>679.8558724327206</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D16" t="n">
-        <v>679.8558724327206</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E16" t="n">
-        <v>510.0978686834578</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F16" t="n">
-        <v>333.390814645214</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
-        <v>168.41083871187</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5439,22 +5439,22 @@
         <v>76.30245582865298</v>
       </c>
       <c r="K16" t="n">
-        <v>145.9109553479574</v>
+        <v>420.669409919093</v>
       </c>
       <c r="L16" t="n">
-        <v>308.4452127213286</v>
+        <v>782.6184676270011</v>
       </c>
       <c r="M16" t="n">
-        <v>728.4981116662318</v>
+        <v>876.5354752335243</v>
       </c>
       <c r="N16" t="n">
-        <v>1148.551010611135</v>
+        <v>968.2193463139978</v>
       </c>
       <c r="O16" t="n">
-        <v>1568.603909556038</v>
+        <v>1052.904240721364</v>
       </c>
       <c r="P16" t="n">
-        <v>1641.066466489123</v>
+        <v>1472.873691624791</v>
       </c>
       <c r="Q16" t="n">
         <v>1691.235784882888</v>
@@ -5463,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1548.595336480848</v>
       </c>
       <c r="T16" t="n">
-        <v>1484.229539642586</v>
+        <v>1548.595336480848</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.229539642586</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="V16" t="n">
-        <v>1197.274031513017</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W16" t="n">
-        <v>925.2476270993081</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X16" t="n">
-        <v>679.8558724327206</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.8558724327206</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>471.4261070147249</v>
+        <v>306.9380512834782</v>
       </c>
       <c r="C17" t="n">
-        <v>471.4261070147249</v>
+        <v>306.9380512834782</v>
       </c>
       <c r="D17" t="n">
-        <v>471.4261070147249</v>
+        <v>43.55867742393263</v>
       </c>
       <c r="E17" t="n">
-        <v>471.4261070147249</v>
+        <v>43.55867742393263</v>
       </c>
       <c r="F17" t="n">
         <v>43.55867742393263</v>
@@ -5521,7 +5521,7 @@
         <v>472.7099358707183</v>
       </c>
       <c r="L17" t="n">
-        <v>743.1793562663948</v>
+        <v>743.179356266395</v>
       </c>
       <c r="M17" t="n">
         <v>1044.128700334657</v>
@@ -5545,22 +5545,22 @@
         <v>2177.933871196632</v>
       </c>
       <c r="T17" t="n">
-        <v>2177.933871196632</v>
+        <v>1965.521663478389</v>
       </c>
       <c r="U17" t="n">
-        <v>2177.933871196632</v>
+        <v>1965.521663478389</v>
       </c>
       <c r="V17" t="n">
-        <v>2130.009719209635</v>
+        <v>1965.521663478389</v>
       </c>
       <c r="W17" t="n">
-        <v>1725.154264620669</v>
+        <v>1560.666208889422</v>
       </c>
       <c r="X17" t="n">
-        <v>1306.011801199979</v>
+        <v>1141.523745468733</v>
       </c>
       <c r="Y17" t="n">
-        <v>897.7256774996326</v>
+        <v>733.237621768386</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>43.55867742393263</v>
       </c>
       <c r="I18" t="n">
-        <v>75.13179097306404</v>
+        <v>101.1954641335216</v>
       </c>
       <c r="J18" t="n">
-        <v>161.7708277834895</v>
+        <v>187.8345009439471</v>
       </c>
       <c r="K18" t="n">
-        <v>438.3544723304519</v>
+        <v>335.914414515714</v>
       </c>
       <c r="L18" t="n">
-        <v>637.4661903240507</v>
+        <v>535.0261325093128</v>
       </c>
       <c r="M18" t="n">
-        <v>869.8201737295692</v>
+        <v>767.3801159148314</v>
       </c>
       <c r="N18" t="n">
-        <v>1108.323875684976</v>
+        <v>1005.883817870238</v>
       </c>
       <c r="O18" t="n">
-        <v>1326.508167493859</v>
+        <v>1224.068109679121</v>
       </c>
       <c r="P18" t="n">
-        <v>1501.620297137436</v>
+        <v>1399.180239322699</v>
       </c>
       <c r="Q18" t="n">
-        <v>1618.678118377426</v>
+        <v>1516.238060562688</v>
       </c>
       <c r="R18" t="n">
         <v>1675.614296135579</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>728.4634395266916</v>
+        <v>533.2244526588534</v>
       </c>
       <c r="C19" t="n">
-        <v>555.9017280099165</v>
+        <v>379.1946739716727</v>
       </c>
       <c r="D19" t="n">
-        <v>390.0237352114392</v>
+        <v>213.3166811731954</v>
       </c>
       <c r="E19" t="n">
-        <v>220.2657314621764</v>
+        <v>43.55867742393263</v>
       </c>
       <c r="F19" t="n">
         <v>43.55867742393263</v>
@@ -5673,16 +5673,16 @@
         <v>43.55867742393263</v>
       </c>
       <c r="J19" t="n">
-        <v>184.4929100076244</v>
+        <v>97.91322484293454</v>
       </c>
       <c r="K19" t="n">
-        <v>286.2826015160406</v>
+        <v>187.2344433095469</v>
       </c>
       <c r="L19" t="n">
-        <v>400.5830089341141</v>
+        <v>719.7447324955814</v>
       </c>
       <c r="M19" t="n">
-        <v>939.6216420552804</v>
+        <v>1258.783365616748</v>
       </c>
       <c r="N19" t="n">
         <v>1478.660275176447</v>
@@ -5700,25 +5700,25 @@
         <v>2177.933871196632</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.933871196632</v>
+        <v>2032.362722645625</v>
       </c>
       <c r="T19" t="n">
-        <v>1952.075396141436</v>
+        <v>1789.834869062353</v>
       </c>
       <c r="U19" t="n">
-        <v>1952.075396141436</v>
+        <v>1511.44465460701</v>
       </c>
       <c r="V19" t="n">
-        <v>1665.119888011866</v>
+        <v>1224.489146477441</v>
       </c>
       <c r="W19" t="n">
-        <v>1393.093483598158</v>
+        <v>952.4627420637323</v>
       </c>
       <c r="X19" t="n">
-        <v>1147.70172893157</v>
+        <v>952.4627420637323</v>
       </c>
       <c r="Y19" t="n">
-        <v>920.2820582456786</v>
+        <v>725.0430713778405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1779.253109498562</v>
+        <v>1350.505284075596</v>
       </c>
       <c r="C20" t="n">
-        <v>1341.110636681985</v>
+        <v>912.3628112590191</v>
       </c>
       <c r="D20" t="n">
-        <v>905.2008518564297</v>
+        <v>476.4530264334635</v>
       </c>
       <c r="E20" t="n">
-        <v>471.4261070147249</v>
+        <v>43.55867742393263</v>
       </c>
       <c r="F20" t="n">
         <v>43.55867742393263</v>
@@ -5752,13 +5752,13 @@
         <v>109.2260805155284</v>
       </c>
       <c r="J20" t="n">
-        <v>254.6928927348941</v>
+        <v>254.6928927348942</v>
       </c>
       <c r="K20" t="n">
         <v>472.7099358707182</v>
       </c>
       <c r="L20" t="n">
-        <v>743.1793562663948</v>
+        <v>743.179356266395</v>
       </c>
       <c r="M20" t="n">
         <v>1044.128700334657</v>
@@ -5794,10 +5794,10 @@
         <v>2177.933871196632</v>
       </c>
       <c r="X20" t="n">
-        <v>1779.253109498562</v>
+        <v>1758.791407775942</v>
       </c>
       <c r="Y20" t="n">
-        <v>1779.253109498562</v>
+        <v>1350.505284075596</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>43.55867742393263</v>
       </c>
       <c r="I21" t="n">
-        <v>101.1954641335216</v>
+        <v>75.13179097306404</v>
       </c>
       <c r="J21" t="n">
-        <v>187.8345009439471</v>
+        <v>290.2745587586848</v>
       </c>
       <c r="K21" t="n">
-        <v>335.914414515714</v>
+        <v>438.3544723304519</v>
       </c>
       <c r="L21" t="n">
-        <v>535.0261325093128</v>
+        <v>637.4661903240507</v>
       </c>
       <c r="M21" t="n">
-        <v>767.3801159148314</v>
+        <v>869.8201737295692</v>
       </c>
       <c r="N21" t="n">
-        <v>1005.883817870238</v>
+        <v>1108.323875684976</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.068109679121</v>
+        <v>1326.508167493859</v>
       </c>
       <c r="P21" t="n">
-        <v>1399.180239322699</v>
+        <v>1501.620297137436</v>
       </c>
       <c r="Q21" t="n">
-        <v>1516.238060562688</v>
+        <v>1618.678118377426</v>
       </c>
       <c r="R21" t="n">
         <v>1675.614296135579</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.4302509569811</v>
+        <v>811.6146671141958</v>
       </c>
       <c r="C22" t="n">
-        <v>532.8685394402061</v>
+        <v>752.8290441098254</v>
       </c>
       <c r="D22" t="n">
-        <v>385.0725910912212</v>
+        <v>752.8290441098254</v>
       </c>
       <c r="E22" t="n">
-        <v>385.0725910912212</v>
+        <v>583.0710403605626</v>
       </c>
       <c r="F22" t="n">
-        <v>208.3655370529774</v>
+        <v>406.3639863223189</v>
       </c>
       <c r="G22" t="n">
-        <v>43.55867742393263</v>
+        <v>241.5571266932741</v>
       </c>
       <c r="H22" t="n">
-        <v>43.55867742393263</v>
+        <v>108.6291179066923</v>
       </c>
       <c r="I22" t="n">
         <v>43.55867742393263</v>
       </c>
       <c r="J22" t="n">
-        <v>184.4929100076244</v>
+        <v>97.91322484293454</v>
       </c>
       <c r="K22" t="n">
-        <v>548.5725830453723</v>
+        <v>192.288357807672</v>
       </c>
       <c r="L22" t="n">
-        <v>662.8729904634458</v>
+        <v>724.7986469937065</v>
       </c>
       <c r="M22" t="n">
-        <v>783.3867439861216</v>
+        <v>845.3124005163824</v>
       </c>
       <c r="N22" t="n">
-        <v>962.9606063417724</v>
+        <v>962.9606063417726</v>
       </c>
       <c r="O22" t="n">
         <v>1491.297015561207</v>
@@ -5937,25 +5937,25 @@
         <v>2177.933871196632</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.933871196632</v>
+        <v>2032.362722645625</v>
       </c>
       <c r="T22" t="n">
-        <v>1935.406017613359</v>
+        <v>1789.834869062353</v>
       </c>
       <c r="U22" t="n">
-        <v>1657.015803158017</v>
+        <v>1789.834869062353</v>
       </c>
       <c r="V22" t="n">
-        <v>1370.060295028448</v>
+        <v>1502.879360932783</v>
       </c>
       <c r="W22" t="n">
-        <v>1370.060295028448</v>
+        <v>1230.852956519075</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.66854036186</v>
+        <v>1230.852956519075</v>
       </c>
       <c r="Y22" t="n">
-        <v>897.2488696759683</v>
+        <v>1003.433285833183</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1350.513434519495</v>
+        <v>2074.182909910425</v>
       </c>
       <c r="C23" t="n">
-        <v>1350.513434519495</v>
+        <v>2028.377484146688</v>
       </c>
       <c r="D23" t="n">
-        <v>1350.513434519495</v>
+        <v>1592.467699321133</v>
       </c>
       <c r="E23" t="n">
         <v>1158.692954479428</v>
@@ -5995,46 +5995,46 @@
         <v>489.1065899611836</v>
       </c>
       <c r="L23" t="n">
-        <v>759.5760103568603</v>
+        <v>1231.053817451861</v>
       </c>
       <c r="M23" t="n">
-        <v>1060.525354425123</v>
+        <v>1532.003161520124</v>
       </c>
       <c r="N23" t="n">
-        <v>1366.344373513263</v>
+        <v>1837.822180608263</v>
       </c>
       <c r="O23" t="n">
-        <v>1655.120601231793</v>
+        <v>2126.598408326794</v>
       </c>
       <c r="P23" t="n">
-        <v>2158.521694989623</v>
+        <v>2373.062237610407</v>
       </c>
       <c r="Q23" t="n">
-        <v>2890.104552502191</v>
+        <v>2720.950487749134</v>
       </c>
       <c r="R23" t="n">
         <v>2997.766575719909</v>
       </c>
       <c r="S23" t="n">
-        <v>2997.766575719909</v>
+        <v>2953.963646455699</v>
       </c>
       <c r="T23" t="n">
-        <v>2785.354368001666</v>
+        <v>2741.551438737456</v>
       </c>
       <c r="U23" t="n">
-        <v>2526.271962874981</v>
+        <v>2482.469033610772</v>
       </c>
       <c r="V23" t="n">
-        <v>2163.655012808808</v>
+        <v>2482.469033610772</v>
       </c>
       <c r="W23" t="n">
-        <v>1758.799558219841</v>
+        <v>2482.469033610772</v>
       </c>
       <c r="X23" t="n">
-        <v>1758.799558219841</v>
+        <v>2482.469033610772</v>
       </c>
       <c r="Y23" t="n">
-        <v>1350.513434519495</v>
+        <v>2074.182909910425</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>59.95533151439817</v>
       </c>
       <c r="I24" t="n">
-        <v>91.52844506352959</v>
+        <v>117.5921182239872</v>
       </c>
       <c r="J24" t="n">
-        <v>178.167481873955</v>
+        <v>306.6712128491503</v>
       </c>
       <c r="K24" t="n">
-        <v>326.2473954457221</v>
+        <v>454.7511264209173</v>
       </c>
       <c r="L24" t="n">
-        <v>525.3591134393208</v>
+        <v>653.8628444145161</v>
       </c>
       <c r="M24" t="n">
-        <v>757.7130968448395</v>
+        <v>886.2168278200347</v>
       </c>
       <c r="N24" t="n">
-        <v>996.2167988002462</v>
+        <v>1124.720529775441</v>
       </c>
       <c r="O24" t="n">
-        <v>1214.401090609129</v>
+        <v>1342.904821584325</v>
       </c>
       <c r="P24" t="n">
-        <v>1389.513220252707</v>
+        <v>1518.016951227902</v>
       </c>
       <c r="Q24" t="n">
-        <v>1517.901994373552</v>
+        <v>1635.074772467892</v>
       </c>
       <c r="R24" t="n">
         <v>1692.010950226045</v>
@@ -6126,16 +6126,16 @@
         <v>1107.665402515543</v>
       </c>
       <c r="C25" t="n">
-        <v>935.1036909987682</v>
+        <v>935.1036909987679</v>
       </c>
       <c r="D25" t="n">
-        <v>769.2256982002909</v>
+        <v>769.2256982002907</v>
       </c>
       <c r="E25" t="n">
-        <v>599.4676944510281</v>
+        <v>599.4676944510279</v>
       </c>
       <c r="F25" t="n">
-        <v>422.7606404127844</v>
+        <v>422.760640412784</v>
       </c>
       <c r="G25" t="n">
         <v>257.9537807837396</v>
@@ -6186,7 +6186,7 @@
         <v>2044.321851000718</v>
       </c>
       <c r="W25" t="n">
-        <v>1772.29544658701</v>
+        <v>1772.295446587009</v>
       </c>
       <c r="X25" t="n">
         <v>1526.903691920422</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1788.868118320886</v>
+        <v>2060.089199772121</v>
       </c>
       <c r="C26" t="n">
-        <v>1350.72564550431</v>
+        <v>1621.946726955545</v>
       </c>
       <c r="D26" t="n">
-        <v>914.815860678754</v>
+        <v>1186.036942129989</v>
       </c>
       <c r="E26" t="n">
-        <v>481.0411158370492</v>
+        <v>752.2621972882841</v>
       </c>
       <c r="F26" t="n">
-        <v>53.17368624625692</v>
+        <v>324.3947676974919</v>
       </c>
       <c r="G26" t="n">
-        <v>53.17368624625692</v>
+        <v>324.3947676974919</v>
       </c>
       <c r="H26" t="n">
         <v>53.17368624625692</v>
@@ -6226,25 +6226,25 @@
         <v>118.8410893378525</v>
       </c>
       <c r="J26" t="n">
-        <v>264.3079015572183</v>
+        <v>566.2892690980515</v>
       </c>
       <c r="K26" t="n">
-        <v>482.3249446930423</v>
+        <v>784.3063122338755</v>
       </c>
       <c r="L26" t="n">
-        <v>752.7943650887189</v>
+        <v>1054.775732629552</v>
       </c>
       <c r="M26" t="n">
-        <v>1053.743709156982</v>
+        <v>1355.725076697815</v>
       </c>
       <c r="N26" t="n">
-        <v>1359.562728245121</v>
+        <v>1661.544095785954</v>
       </c>
       <c r="O26" t="n">
-        <v>1648.338955963652</v>
+        <v>1950.320323504485</v>
       </c>
       <c r="P26" t="n">
-        <v>1894.802785247265</v>
+        <v>2196.784152788098</v>
       </c>
       <c r="Q26" t="n">
         <v>2381.868224342072</v>
@@ -6253,25 +6253,25 @@
         <v>2658.684312312846</v>
       </c>
       <c r="S26" t="n">
-        <v>2658.684312312846</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="T26" t="n">
-        <v>2474.250093932479</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="U26" t="n">
-        <v>2215.167688805794</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="V26" t="n">
-        <v>2215.167688805794</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="W26" t="n">
-        <v>2215.167688805794</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="X26" t="n">
-        <v>2215.167688805794</v>
+        <v>2486.388770257029</v>
       </c>
       <c r="Y26" t="n">
-        <v>2215.167688805794</v>
+        <v>2486.388770257029</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>902.8853079780606</v>
+        <v>1035.813316764642</v>
       </c>
       <c r="C28" t="n">
-        <v>730.3235964612855</v>
+        <v>863.2516052478674</v>
       </c>
       <c r="D28" t="n">
-        <v>564.4456036628083</v>
+        <v>697.3736124493901</v>
       </c>
       <c r="E28" t="n">
-        <v>394.6875999135455</v>
+        <v>527.6156087001273</v>
       </c>
       <c r="F28" t="n">
-        <v>217.9805458753017</v>
+        <v>350.9085546618835</v>
       </c>
       <c r="G28" t="n">
-        <v>53.17368624625692</v>
+        <v>186.1016950328387</v>
       </c>
       <c r="H28" t="n">
         <v>53.17368624625692</v>
@@ -6387,19 +6387,19 @@
         <v>107.5282336652588</v>
       </c>
       <c r="K28" t="n">
-        <v>196.8494521318711</v>
+        <v>398.9727706305745</v>
       </c>
       <c r="L28" t="n">
-        <v>729.3597413179057</v>
+        <v>931.4830598166091</v>
       </c>
       <c r="M28" t="n">
-        <v>1309.357362021495</v>
+        <v>1051.996813339285</v>
       </c>
       <c r="N28" t="n">
-        <v>1869.264371004529</v>
+        <v>1611.903822322319</v>
       </c>
       <c r="O28" t="n">
-        <v>2397.600780223964</v>
+        <v>2140.240231541754</v>
       </c>
       <c r="P28" t="n">
         <v>2580.730653718654</v>
@@ -6411,25 +6411,25 @@
         <v>2658.684312312846</v>
       </c>
       <c r="S28" t="n">
-        <v>2647.415332631419</v>
+        <v>2658.684312312846</v>
       </c>
       <c r="T28" t="n">
-        <v>2404.887479048147</v>
+        <v>2537.815487834729</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.497264592805</v>
+        <v>2259.425273379387</v>
       </c>
       <c r="V28" t="n">
-        <v>1839.541756463236</v>
+        <v>1972.469765249817</v>
       </c>
       <c r="W28" t="n">
-        <v>1567.515352049527</v>
+        <v>1700.443360836109</v>
       </c>
       <c r="X28" t="n">
-        <v>1322.12359738294</v>
+        <v>1455.051606169521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1094.703926697048</v>
+        <v>1227.63193548363</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1571.314150256519</v>
+        <v>548.485778427533</v>
       </c>
       <c r="C29" t="n">
-        <v>1133.171677439942</v>
+        <v>548.485778427533</v>
       </c>
       <c r="D29" t="n">
-        <v>697.2618926143869</v>
+        <v>481.0411158370492</v>
       </c>
       <c r="E29" t="n">
-        <v>263.487147772682</v>
+        <v>481.0411158370492</v>
       </c>
       <c r="F29" t="n">
         <v>53.17368624625692</v>
@@ -6463,25 +6463,25 @@
         <v>118.8410893378525</v>
       </c>
       <c r="J29" t="n">
-        <v>699.5625890101362</v>
+        <v>264.3079015572183</v>
       </c>
       <c r="K29" t="n">
-        <v>953.4603769869325</v>
+        <v>482.3249446930423</v>
       </c>
       <c r="L29" t="n">
-        <v>1223.929797382609</v>
+        <v>752.7943650887189</v>
       </c>
       <c r="M29" t="n">
-        <v>1524.879141450872</v>
+        <v>1053.743709156982</v>
       </c>
       <c r="N29" t="n">
-        <v>1830.698160539011</v>
+        <v>1359.562728245121</v>
       </c>
       <c r="O29" t="n">
-        <v>2119.474388257542</v>
+        <v>1648.338955963652</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.938217541155</v>
+        <v>1894.802785247265</v>
       </c>
       <c r="Q29" t="n">
         <v>2551.022289095129</v>
@@ -6496,19 +6496,19 @@
         <v>2402.469175330394</v>
       </c>
       <c r="U29" t="n">
-        <v>2402.469175330394</v>
+        <v>2143.386770203709</v>
       </c>
       <c r="V29" t="n">
-        <v>2402.469175330394</v>
+        <v>1780.769820137536</v>
       </c>
       <c r="W29" t="n">
-        <v>1997.613720741427</v>
+        <v>1375.914365548569</v>
       </c>
       <c r="X29" t="n">
-        <v>1997.613720741427</v>
+        <v>956.7719021278796</v>
       </c>
       <c r="Y29" t="n">
-        <v>1997.613720741427</v>
+        <v>548.485778427533</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>53.17368624625692</v>
       </c>
       <c r="I30" t="n">
-        <v>84.74679979538833</v>
+        <v>110.8104729558459</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3858366058138</v>
+        <v>299.889567581009</v>
       </c>
       <c r="K30" t="n">
-        <v>319.4657501775807</v>
+        <v>447.969481152776</v>
       </c>
       <c r="L30" t="n">
-        <v>518.5774681711795</v>
+        <v>647.0811991463747</v>
       </c>
       <c r="M30" t="n">
-        <v>750.9314515766981</v>
+        <v>879.4351825518934</v>
       </c>
       <c r="N30" t="n">
-        <v>989.4351535321049</v>
+        <v>1117.9388845073</v>
       </c>
       <c r="O30" t="n">
-        <v>1207.619445340988</v>
+        <v>1336.123176316183</v>
       </c>
       <c r="P30" t="n">
-        <v>1382.731574984565</v>
+        <v>1511.235305959761</v>
       </c>
       <c r="Q30" t="n">
         <v>1628.29312719975</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>914.1542876594872</v>
+        <v>936.0768976183574</v>
       </c>
       <c r="C31" t="n">
-        <v>741.5925761427121</v>
+        <v>763.5151861015823</v>
       </c>
       <c r="D31" t="n">
-        <v>575.7145833442348</v>
+        <v>597.6371933031051</v>
       </c>
       <c r="E31" t="n">
-        <v>405.9565795949721</v>
+        <v>427.8791895538423</v>
       </c>
       <c r="F31" t="n">
-        <v>229.2495255567283</v>
+        <v>251.1721355155984</v>
       </c>
       <c r="G31" t="n">
-        <v>64.44266592768355</v>
+        <v>251.1721355155984</v>
       </c>
       <c r="H31" t="n">
-        <v>53.17368624625692</v>
+        <v>118.2441267290166</v>
       </c>
       <c r="I31" t="n">
         <v>53.17368624625692</v>
       </c>
       <c r="J31" t="n">
-        <v>194.1079188299487</v>
+        <v>107.5282336652588</v>
       </c>
       <c r="K31" t="n">
-        <v>558.1875918676966</v>
+        <v>196.8494521318711</v>
       </c>
       <c r="L31" t="n">
-        <v>1090.697881053731</v>
+        <v>471.999192635696</v>
       </c>
       <c r="M31" t="n">
-        <v>1670.69550175732</v>
+        <v>1051.996813339285</v>
       </c>
       <c r="N31" t="n">
-        <v>1863.380296683768</v>
+        <v>1611.903822322319</v>
       </c>
       <c r="O31" t="n">
-        <v>1972.047456677422</v>
+        <v>2140.240231541754</v>
       </c>
       <c r="P31" t="n">
-        <v>2412.537878854322</v>
+        <v>2580.730653718654</v>
       </c>
       <c r="Q31" t="n">
         <v>2645.10762893743</v>
@@ -6663,10 +6663,10 @@
         <v>1578.784331730954</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.392577064366</v>
+        <v>1355.315187023236</v>
       </c>
       <c r="Y31" t="n">
-        <v>1105.972906378474</v>
+        <v>1127.895516337345</v>
       </c>
     </row>
     <row r="32">
@@ -6709,16 +6709,16 @@
         <v>752.7943650887189</v>
       </c>
       <c r="M32" t="n">
-        <v>1053.743709156982</v>
+        <v>1172.673793241582</v>
       </c>
       <c r="N32" t="n">
-        <v>1359.562728245121</v>
+        <v>1830.698160539011</v>
       </c>
       <c r="O32" t="n">
-        <v>1648.338955963652</v>
+        <v>2119.474388257542</v>
       </c>
       <c r="P32" t="n">
-        <v>1894.802785247265</v>
+        <v>2365.938217541155</v>
       </c>
       <c r="Q32" t="n">
         <v>2551.022289095129</v>
@@ -6727,25 +6727,25 @@
         <v>2658.684312312846</v>
       </c>
       <c r="S32" t="n">
-        <v>2658.684312312846</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="T32" t="n">
-        <v>2634.310152226483</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="U32" t="n">
-        <v>2634.310152226483</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="V32" t="n">
-        <v>2634.310152226483</v>
+        <v>2252.264432982463</v>
       </c>
       <c r="W32" t="n">
-        <v>2634.310152226483</v>
+        <v>1847.408978393496</v>
       </c>
       <c r="X32" t="n">
-        <v>2215.167688805794</v>
+        <v>1847.408978393496</v>
       </c>
       <c r="Y32" t="n">
-        <v>2215.167688805794</v>
+        <v>1788.868118320886</v>
       </c>
     </row>
     <row r="33">
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5831391084803</v>
+        <v>914.1542876594872</v>
       </c>
       <c r="C34" t="n">
-        <v>596.0214275917052</v>
+        <v>741.5925761427121</v>
       </c>
       <c r="D34" t="n">
-        <v>430.1434347932279</v>
+        <v>575.7145833442348</v>
       </c>
       <c r="E34" t="n">
-        <v>260.3854310439652</v>
+        <v>405.9565795949721</v>
       </c>
       <c r="F34" t="n">
-        <v>83.67837700572139</v>
+        <v>229.2495255567283</v>
       </c>
       <c r="G34" t="n">
-        <v>53.17368624625692</v>
+        <v>118.2441267290166</v>
       </c>
       <c r="H34" t="n">
-        <v>53.17368624625692</v>
+        <v>118.2441267290166</v>
       </c>
       <c r="I34" t="n">
         <v>53.17368624625692</v>
       </c>
       <c r="J34" t="n">
-        <v>194.1079188299487</v>
+        <v>107.5282336652588</v>
       </c>
       <c r="K34" t="n">
-        <v>286.9957974200035</v>
+        <v>196.8494521318711</v>
       </c>
       <c r="L34" t="n">
-        <v>819.506086606038</v>
+        <v>471.999192635696</v>
       </c>
       <c r="M34" t="n">
-        <v>1399.503707309627</v>
+        <v>1051.996813339285</v>
       </c>
       <c r="N34" t="n">
-        <v>1959.410716292661</v>
+        <v>1611.903822322319</v>
       </c>
       <c r="O34" t="n">
-        <v>2487.747125512096</v>
+        <v>2140.240231541754</v>
       </c>
       <c r="P34" t="n">
         <v>2580.730653718654</v>
@@ -6885,25 +6885,25 @@
         <v>2658.684312312846</v>
       </c>
       <c r="S34" t="n">
-        <v>2513.113163761839</v>
+        <v>2658.684312312846</v>
       </c>
       <c r="T34" t="n">
-        <v>2270.585310178567</v>
+        <v>2416.156458729574</v>
       </c>
       <c r="U34" t="n">
-        <v>1992.195095723225</v>
+        <v>2137.766244274232</v>
       </c>
       <c r="V34" t="n">
-        <v>1705.239587593655</v>
+        <v>1850.810736144662</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.213183179947</v>
+        <v>1578.784331730954</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.821428513359</v>
+        <v>1333.392577064366</v>
       </c>
       <c r="Y34" t="n">
-        <v>960.4017578274675</v>
+        <v>1105.972906378474</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1408.386823818282</v>
+        <v>1824.098618127592</v>
       </c>
       <c r="C35" t="n">
-        <v>1408.386823818282</v>
+        <v>1385.956145311015</v>
       </c>
       <c r="D35" t="n">
-        <v>972.4770389927266</v>
+        <v>950.0463604854594</v>
       </c>
       <c r="E35" t="n">
-        <v>538.7022941510218</v>
+        <v>516.2716156437546</v>
       </c>
       <c r="F35" t="n">
-        <v>110.8348645602295</v>
+        <v>88.4041860529623</v>
       </c>
       <c r="G35" t="n">
-        <v>110.8348645602295</v>
+        <v>88.4041860529623</v>
       </c>
       <c r="H35" t="n">
         <v>53.17368624625692</v>
@@ -6943,22 +6943,22 @@
         <v>482.3249446930423</v>
       </c>
       <c r="L35" t="n">
-        <v>1140.349311990472</v>
+        <v>752.7943650887189</v>
       </c>
       <c r="M35" t="n">
-        <v>1441.298656058734</v>
+        <v>1053.743709156982</v>
       </c>
       <c r="N35" t="n">
-        <v>1747.117675146874</v>
+        <v>1359.562728245121</v>
       </c>
       <c r="O35" t="n">
-        <v>2035.893902865405</v>
+        <v>1648.338955963652</v>
       </c>
       <c r="P35" t="n">
-        <v>2282.357732149018</v>
+        <v>1894.802785247265</v>
       </c>
       <c r="Q35" t="n">
-        <v>2467.441803702991</v>
+        <v>2551.022289095129</v>
       </c>
       <c r="R35" t="n">
         <v>2658.684312312846</v>
@@ -6976,13 +6976,13 @@
         <v>2658.684312312846</v>
       </c>
       <c r="W35" t="n">
-        <v>2253.828857723879</v>
+        <v>2658.684312312846</v>
       </c>
       <c r="X35" t="n">
-        <v>1834.68639430319</v>
+        <v>2658.684312312846</v>
       </c>
       <c r="Y35" t="n">
-        <v>1834.68639430319</v>
+        <v>2250.398188612499</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>53.17368624625692</v>
       </c>
       <c r="I36" t="n">
-        <v>110.8104729558459</v>
+        <v>96.07775267624383</v>
       </c>
       <c r="J36" t="n">
-        <v>299.889567581009</v>
+        <v>182.7167894866693</v>
       </c>
       <c r="K36" t="n">
-        <v>447.969481152776</v>
+        <v>330.7967030584363</v>
       </c>
       <c r="L36" t="n">
-        <v>647.0811991463747</v>
+        <v>529.908421052035</v>
       </c>
       <c r="M36" t="n">
-        <v>879.4351825518934</v>
+        <v>762.2624044575537</v>
       </c>
       <c r="N36" t="n">
-        <v>1117.9388845073</v>
+        <v>1000.76610641296</v>
       </c>
       <c r="O36" t="n">
-        <v>1336.123176316183</v>
+        <v>1218.950398221843</v>
       </c>
       <c r="P36" t="n">
-        <v>1511.235305959761</v>
+        <v>1394.062527865421</v>
       </c>
       <c r="Q36" t="n">
-        <v>1628.29312719975</v>
+        <v>1511.12034910541</v>
       </c>
       <c r="R36" t="n">
         <v>1685.229304957904</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9353239661651</v>
+        <v>1100.883757247402</v>
       </c>
       <c r="C37" t="n">
-        <v>697.3736124493901</v>
+        <v>928.3220457306269</v>
       </c>
       <c r="D37" t="n">
-        <v>697.3736124493901</v>
+        <v>762.4440529321496</v>
       </c>
       <c r="E37" t="n">
-        <v>527.6156087001273</v>
+        <v>592.6860491828869</v>
       </c>
       <c r="F37" t="n">
-        <v>350.9085546618835</v>
+        <v>415.9789951446431</v>
       </c>
       <c r="G37" t="n">
-        <v>186.1016950328387</v>
+        <v>251.1721355155984</v>
       </c>
       <c r="H37" t="n">
-        <v>53.17368624625692</v>
+        <v>118.2441267290166</v>
       </c>
       <c r="I37" t="n">
         <v>53.17368624625692</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9332312858843</v>
+        <v>107.5282336652588</v>
       </c>
       <c r="K37" t="n">
-        <v>537.0129043236321</v>
+        <v>196.8494521318711</v>
       </c>
       <c r="L37" t="n">
         <v>651.3133117417057</v>
@@ -7122,25 +7122,25 @@
         <v>2658.684312312846</v>
       </c>
       <c r="S37" t="n">
-        <v>2614.465348619524</v>
+        <v>2658.684312312846</v>
       </c>
       <c r="T37" t="n">
-        <v>2371.937495036252</v>
+        <v>2416.156458729574</v>
       </c>
       <c r="U37" t="n">
-        <v>2093.54728058091</v>
+        <v>2137.766244274232</v>
       </c>
       <c r="V37" t="n">
-        <v>1806.59177245134</v>
+        <v>1850.810736144662</v>
       </c>
       <c r="W37" t="n">
-        <v>1534.565368037632</v>
+        <v>1765.513801318868</v>
       </c>
       <c r="X37" t="n">
-        <v>1289.173613371044</v>
+        <v>1520.122046652281</v>
       </c>
       <c r="Y37" t="n">
-        <v>1061.753942685152</v>
+        <v>1292.702375966389</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2253.828857723879</v>
+        <v>1364.583894554073</v>
       </c>
       <c r="C38" t="n">
-        <v>1815.686384907302</v>
+        <v>926.4414217374961</v>
       </c>
       <c r="D38" t="n">
-        <v>1379.776600081747</v>
+        <v>490.5316369119406</v>
       </c>
       <c r="E38" t="n">
-        <v>946.001855240042</v>
+        <v>56.75689207023572</v>
       </c>
       <c r="F38" t="n">
-        <v>518.1344256492498</v>
+        <v>53.17368624625692</v>
       </c>
       <c r="G38" t="n">
-        <v>324.3947676974919</v>
+        <v>53.17368624625692</v>
       </c>
       <c r="H38" t="n">
         <v>53.17368624625692</v>
@@ -7174,52 +7174,52 @@
         <v>118.8410893378525</v>
       </c>
       <c r="J38" t="n">
-        <v>566.2892690980515</v>
+        <v>699.5625890101362</v>
       </c>
       <c r="K38" t="n">
-        <v>784.3063122338755</v>
+        <v>917.5796321459603</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.775732629552</v>
+        <v>1188.049052541637</v>
       </c>
       <c r="M38" t="n">
-        <v>1355.725076697815</v>
+        <v>1488.9983966099</v>
       </c>
       <c r="N38" t="n">
-        <v>1661.544095785954</v>
+        <v>1794.817415698039</v>
       </c>
       <c r="O38" t="n">
-        <v>1950.320323504485</v>
+        <v>2083.59364341657</v>
       </c>
       <c r="P38" t="n">
-        <v>2196.784152788098</v>
+        <v>2330.057472700183</v>
       </c>
       <c r="Q38" t="n">
-        <v>2381.868224342072</v>
+        <v>2515.141544254157</v>
       </c>
       <c r="R38" t="n">
         <v>2658.684312312846</v>
       </c>
       <c r="S38" t="n">
-        <v>2658.684312312846</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="T38" t="n">
-        <v>2658.684312312846</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="U38" t="n">
-        <v>2658.684312312846</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="V38" t="n">
-        <v>2658.684312312846</v>
+        <v>2614.881383048637</v>
       </c>
       <c r="W38" t="n">
-        <v>2253.828857723879</v>
+        <v>2210.02592845967</v>
       </c>
       <c r="X38" t="n">
-        <v>2253.828857723879</v>
+        <v>1790.88346503898</v>
       </c>
       <c r="Y38" t="n">
-        <v>2253.828857723879</v>
+        <v>1790.88346503898</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>53.17368624625692</v>
       </c>
       <c r="I39" t="n">
-        <v>84.74679979538833</v>
+        <v>96.07775267624383</v>
       </c>
       <c r="J39" t="n">
-        <v>171.3858366058138</v>
+        <v>182.7167894866693</v>
       </c>
       <c r="K39" t="n">
-        <v>319.4657501775807</v>
+        <v>330.7967030584363</v>
       </c>
       <c r="L39" t="n">
-        <v>518.5774681711795</v>
+        <v>529.908421052035</v>
       </c>
       <c r="M39" t="n">
-        <v>750.9314515766981</v>
+        <v>762.2624044575537</v>
       </c>
       <c r="N39" t="n">
-        <v>989.4351535321049</v>
+        <v>1000.76610641296</v>
       </c>
       <c r="O39" t="n">
-        <v>1207.619445340988</v>
+        <v>1218.950398221843</v>
       </c>
       <c r="P39" t="n">
-        <v>1382.731574984565</v>
+        <v>1394.062527865421</v>
       </c>
       <c r="Q39" t="n">
         <v>1511.12034910541</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5831391084803</v>
+        <v>902.8853079780606</v>
       </c>
       <c r="C40" t="n">
-        <v>596.0214275917052</v>
+        <v>730.3235964612855</v>
       </c>
       <c r="D40" t="n">
-        <v>430.1434347932279</v>
+        <v>564.4456036628083</v>
       </c>
       <c r="E40" t="n">
-        <v>260.3854310439652</v>
+        <v>394.6875999135455</v>
       </c>
       <c r="F40" t="n">
-        <v>83.67837700572139</v>
+        <v>217.9805458753017</v>
       </c>
       <c r="G40" t="n">
         <v>53.17368624625692</v>
@@ -7350,7 +7350,7 @@
         <v>2397.600780223964</v>
       </c>
       <c r="P40" t="n">
-        <v>2580.730653718654</v>
+        <v>2490.584308430522</v>
       </c>
       <c r="Q40" t="n">
         <v>2645.10762893743</v>
@@ -7359,25 +7359,25 @@
         <v>2658.684312312846</v>
       </c>
       <c r="S40" t="n">
-        <v>2513.113163761839</v>
+        <v>2647.415332631419</v>
       </c>
       <c r="T40" t="n">
-        <v>2270.585310178567</v>
+        <v>2404.887479048147</v>
       </c>
       <c r="U40" t="n">
-        <v>1992.195095723225</v>
+        <v>2126.497264592805</v>
       </c>
       <c r="V40" t="n">
-        <v>1705.239587593655</v>
+        <v>1839.541756463236</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.213183179947</v>
+        <v>1567.515352049527</v>
       </c>
       <c r="X40" t="n">
-        <v>1187.821428513359</v>
+        <v>1322.12359738294</v>
       </c>
       <c r="Y40" t="n">
-        <v>960.4017578274675</v>
+        <v>1094.703926697048</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>748.5545037168724</v>
+        <v>1148.203615639875</v>
       </c>
       <c r="C41" t="n">
-        <v>748.5545037168724</v>
+        <v>1148.203615639875</v>
       </c>
       <c r="D41" t="n">
-        <v>748.5545037168724</v>
+        <v>1148.203615639875</v>
       </c>
       <c r="E41" t="n">
-        <v>314.7797588751676</v>
+        <v>714.4288707981701</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7797588751676</v>
+        <v>714.4288707981701</v>
       </c>
       <c r="G41" t="n">
         <v>314.7797588751676</v>
@@ -7408,16 +7408,16 @@
         <v>43.55867742393263</v>
       </c>
       <c r="I41" t="n">
-        <v>109.2260805155284</v>
+        <v>109.2260805155283</v>
       </c>
       <c r="J41" t="n">
-        <v>254.6928927348942</v>
+        <v>254.692892734894</v>
       </c>
       <c r="K41" t="n">
-        <v>472.7099358707182</v>
+        <v>472.7099358707181</v>
       </c>
       <c r="L41" t="n">
-        <v>743.1793562663948</v>
+        <v>743.1793562663947</v>
       </c>
       <c r="M41" t="n">
         <v>1044.128700334657</v>
@@ -7438,25 +7438,25 @@
         <v>2177.933871196632</v>
       </c>
       <c r="S41" t="n">
-        <v>2134.130941932422</v>
+        <v>2177.933871196632</v>
       </c>
       <c r="T41" t="n">
-        <v>1921.718734214179</v>
+        <v>1965.521663478389</v>
       </c>
       <c r="U41" t="n">
-        <v>1662.636329087495</v>
+        <v>1965.521663478389</v>
       </c>
       <c r="V41" t="n">
-        <v>1300.019379021321</v>
+        <v>1602.904713412215</v>
       </c>
       <c r="W41" t="n">
-        <v>1167.696967137562</v>
+        <v>1602.904713412215</v>
       </c>
       <c r="X41" t="n">
-        <v>748.5545037168724</v>
+        <v>1183.762249991526</v>
       </c>
       <c r="Y41" t="n">
-        <v>748.5545037168724</v>
+        <v>1148.203615639875</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>43.55867742393263</v>
       </c>
       <c r="I42" t="n">
-        <v>101.1954641335216</v>
+        <v>86.46274385391969</v>
       </c>
       <c r="J42" t="n">
-        <v>290.2745587586848</v>
+        <v>173.1017806643451</v>
       </c>
       <c r="K42" t="n">
-        <v>438.3544723304519</v>
+        <v>321.1816942361122</v>
       </c>
       <c r="L42" t="n">
-        <v>637.4661903240507</v>
+        <v>520.293412229711</v>
       </c>
       <c r="M42" t="n">
-        <v>869.8201737295692</v>
+        <v>752.6473956352295</v>
       </c>
       <c r="N42" t="n">
-        <v>1108.323875684976</v>
+        <v>991.1510975906363</v>
       </c>
       <c r="O42" t="n">
-        <v>1326.508167493859</v>
+        <v>1209.335389399519</v>
       </c>
       <c r="P42" t="n">
-        <v>1501.620297137436</v>
+        <v>1384.447519043097</v>
       </c>
       <c r="Q42" t="n">
-        <v>1618.678118377426</v>
+        <v>1501.505340283087</v>
       </c>
       <c r="R42" t="n">
         <v>1675.614296135579</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>893.2702991557362</v>
+        <v>566.2229124476082</v>
       </c>
       <c r="C43" t="n">
-        <v>720.7085876389611</v>
+        <v>393.6612009308332</v>
       </c>
       <c r="D43" t="n">
-        <v>554.8305948404839</v>
+        <v>393.6612009308332</v>
       </c>
       <c r="E43" t="n">
-        <v>385.0725910912212</v>
+        <v>393.6612009308332</v>
       </c>
       <c r="F43" t="n">
-        <v>208.3655370529774</v>
+        <v>216.9541468925894</v>
       </c>
       <c r="G43" t="n">
-        <v>43.55867742393263</v>
+        <v>216.9541468925894</v>
       </c>
       <c r="H43" t="n">
-        <v>43.55867742393263</v>
+        <v>84.02613810600755</v>
       </c>
       <c r="I43" t="n">
         <v>43.55867742393263</v>
       </c>
       <c r="J43" t="n">
-        <v>184.4929100076244</v>
+        <v>97.91322484293454</v>
       </c>
       <c r="K43" t="n">
-        <v>548.5725830453722</v>
+        <v>360.4811326720044</v>
       </c>
       <c r="L43" t="n">
-        <v>723.0774689237118</v>
+        <v>892.9914218580388</v>
       </c>
       <c r="M43" t="n">
-        <v>843.5912224463876</v>
+        <v>1013.505175380715</v>
       </c>
       <c r="N43" t="n">
-        <v>1382.629855567554</v>
+        <v>1131.153381206105</v>
       </c>
       <c r="O43" t="n">
-        <v>1491.297015561207</v>
+        <v>1659.48979042554</v>
       </c>
       <c r="P43" t="n">
-        <v>1931.787437738107</v>
+        <v>2099.98021260244</v>
       </c>
       <c r="Q43" t="n">
         <v>2164.357187821216</v>
@@ -7599,22 +7599,22 @@
         <v>2032.362722645625</v>
       </c>
       <c r="T43" t="n">
-        <v>1844.855851356772</v>
+        <v>1789.834869062353</v>
       </c>
       <c r="U43" t="n">
-        <v>1844.855851356772</v>
+        <v>1789.834869062353</v>
       </c>
       <c r="V43" t="n">
-        <v>1557.900343227203</v>
+        <v>1502.879360932783</v>
       </c>
       <c r="W43" t="n">
-        <v>1557.900343227203</v>
+        <v>1230.852956519075</v>
       </c>
       <c r="X43" t="n">
-        <v>1312.508588560615</v>
+        <v>985.4612018524872</v>
       </c>
       <c r="Y43" t="n">
-        <v>1085.088917874723</v>
+        <v>758.0415311665954</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1188.8320165173</v>
+        <v>1343.343324673006</v>
       </c>
       <c r="C44" t="n">
-        <v>750.6895437007231</v>
+        <v>905.2008518564297</v>
       </c>
       <c r="D44" t="n">
-        <v>314.7797588751676</v>
+        <v>905.2008518564297</v>
       </c>
       <c r="E44" t="n">
-        <v>314.7797588751676</v>
+        <v>471.4261070147249</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7797588751676</v>
+        <v>43.55867742393263</v>
       </c>
       <c r="G44" t="n">
-        <v>314.7797588751676</v>
+        <v>43.55867742393263</v>
       </c>
       <c r="H44" t="n">
         <v>43.55867742393263</v>
       </c>
       <c r="I44" t="n">
-        <v>109.2260805155283</v>
+        <v>109.2260805155284</v>
       </c>
       <c r="J44" t="n">
-        <v>254.692892734894</v>
+        <v>254.6928927348942</v>
       </c>
       <c r="K44" t="n">
-        <v>472.709935870718</v>
+        <v>472.7099358707183</v>
       </c>
       <c r="L44" t="n">
-        <v>743.1793562663946</v>
+        <v>743.1793562663948</v>
       </c>
       <c r="M44" t="n">
         <v>1044.128700334657</v>
@@ -7675,25 +7675,25 @@
         <v>2177.933871196632</v>
       </c>
       <c r="S44" t="n">
-        <v>2134.130941932422</v>
+        <v>2177.933871196632</v>
       </c>
       <c r="T44" t="n">
-        <v>1921.718734214179</v>
+        <v>2177.933871196632</v>
       </c>
       <c r="U44" t="n">
-        <v>1662.636329087495</v>
+        <v>2110.815729328147</v>
       </c>
       <c r="V44" t="n">
-        <v>1300.019379021321</v>
+        <v>1748.198779261973</v>
       </c>
       <c r="W44" t="n">
-        <v>1188.8320165173</v>
+        <v>1343.343324673006</v>
       </c>
       <c r="X44" t="n">
-        <v>1188.8320165173</v>
+        <v>1343.343324673006</v>
       </c>
       <c r="Y44" t="n">
-        <v>1188.8320165173</v>
+        <v>1343.343324673006</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>43.55867742393263</v>
       </c>
       <c r="I45" t="n">
-        <v>75.13179097306404</v>
+        <v>101.1954641335216</v>
       </c>
       <c r="J45" t="n">
-        <v>161.7708277834895</v>
+        <v>290.2745587586848</v>
       </c>
       <c r="K45" t="n">
         <v>438.3544723304519</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>856.4403041930553</v>
+        <v>287.8326979922659</v>
       </c>
       <c r="C46" t="n">
-        <v>683.8785926762803</v>
+        <v>287.8326979922659</v>
       </c>
       <c r="D46" t="n">
-        <v>518.000599877803</v>
+        <v>287.8326979922659</v>
       </c>
       <c r="E46" t="n">
-        <v>518.000599877803</v>
+        <v>287.8326979922659</v>
       </c>
       <c r="F46" t="n">
-        <v>341.2935458395592</v>
+        <v>287.8326979922659</v>
       </c>
       <c r="G46" t="n">
-        <v>176.4866862105144</v>
+        <v>241.5571266932741</v>
       </c>
       <c r="H46" t="n">
-        <v>43.55867742393263</v>
+        <v>108.6291179066923</v>
       </c>
       <c r="I46" t="n">
         <v>43.55867742393263</v>
       </c>
       <c r="J46" t="n">
-        <v>97.91322484293454</v>
+        <v>173.6794028397418</v>
       </c>
       <c r="K46" t="n">
-        <v>187.2344433095469</v>
+        <v>537.7590758774897</v>
       </c>
       <c r="L46" t="n">
-        <v>719.7447324955814</v>
+        <v>652.0594832955632</v>
       </c>
       <c r="M46" t="n">
-        <v>1258.783365616748</v>
+        <v>1191.098116416729</v>
       </c>
       <c r="N46" t="n">
-        <v>1797.821998737914</v>
+        <v>1730.136749537896</v>
       </c>
       <c r="O46" t="n">
-        <v>1906.489158731567</v>
+        <v>1838.803909531549</v>
       </c>
       <c r="P46" t="n">
-        <v>2099.98021260244</v>
+        <v>1931.787437738107</v>
       </c>
       <c r="Q46" t="n">
         <v>2164.357187821216</v>
@@ -7833,25 +7833,25 @@
         <v>2177.933871196632</v>
       </c>
       <c r="S46" t="n">
-        <v>2177.933871196632</v>
+        <v>2032.362722645625</v>
       </c>
       <c r="T46" t="n">
-        <v>1935.406017613359</v>
+        <v>1789.834869062353</v>
       </c>
       <c r="U46" t="n">
-        <v>1657.015803158017</v>
+        <v>1511.44465460701</v>
       </c>
       <c r="V46" t="n">
-        <v>1657.015803158017</v>
+        <v>1224.489146477441</v>
       </c>
       <c r="W46" t="n">
-        <v>1521.070348264522</v>
+        <v>952.4627420637323</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.678593597934</v>
+        <v>707.0709873971448</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.258922912042</v>
+        <v>479.6513167112531</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,13 +8142,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>370.2350542247758</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8376,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8455,10 +8455,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8534,25 +8534,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8613,22 +8613,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8768,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>117.7675060179282</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>236.551210535965</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.6966458575921</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>334.3211968967578</v>
+        <v>188.1762207334397</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8862,13 +8862,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>338.7555601389259</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.97917541508692</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.247856393557</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>117.7675060179286</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>74.20135692551327</v>
+        <v>275.6304481725202</v>
       </c>
       <c r="M16" t="n">
-        <v>329.430193271091</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>331.6858867317472</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>338.7555601389261</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8017484597933</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>103.4748058734724</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.59441721394334</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>422.7524036348389</v>
       </c>
       <c r="N19" t="n">
-        <v>425.6468962583597</v>
+        <v>103.2613169033423</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>129.8017484597933</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>103.4748058734724</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>5.104964139520348</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>62.55116821238437</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>476.2402091868694</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>259.5325903779967</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>164.4486652371256</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>103.4748058734724</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.44540695035903</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>305.03168438468</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>305.0316843846801</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10035,13 +10035,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>204.1649681805085</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>91.05691443245678</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>36.2431766070427</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>475.8943760544344</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>103.4748058734723</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>129.8017484597929</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>162.4740738239914</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>75.79453444551372</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>120.1313980652531</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>355.7629779891815</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>475.8943760544345</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.60268699337621</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>162.4740738239914</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10524,7 +10524,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>391.4696433351039</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>475.8943760544344</v>
       </c>
       <c r="R35" t="n">
-        <v>84.42473271933083</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>11.4454069503591</v>
       </c>
       <c r="J36" t="n">
-        <v>103.4748058734723</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>66.06565416224791</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>343.5994466583445</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>305.0316843846799</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>36.24317660704264</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>11.4454069503591</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.44540695035903</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>91.05691443245678</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>11.44540695035924</v>
       </c>
       <c r="J42" t="n">
-        <v>103.4748058734725</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>174.9966559216742</v>
       </c>
       <c r="L43" t="n">
-        <v>60.81260450531931</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>425.6468962583598</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>103.4748058734725</v>
       </c>
       <c r="K45" t="n">
-        <v>129.8017484597933</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>76.53149292606793</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>422.7524036348389</v>
+        <v>422.752403634839</v>
       </c>
       <c r="N46" t="n">
-        <v>425.6468962583598</v>
+        <v>425.6468962583599</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.522753196277</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23272,10 +23272,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.0346945768795</v>
+        <v>73.05662426783562</v>
       </c>
       <c r="H11" t="n">
-        <v>204.7664016599476</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>52.07140607624191</v>
       </c>
       <c r="T11" t="n">
-        <v>211.9606135828359</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.5221469772661</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3301761740106</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>133.122498409159</v>
       </c>
       <c r="I13" t="n">
-        <v>69.57375468953282</v>
+        <v>46.17922780670979</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>38.42077092219918</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23503,13 +23503,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.141139873183477</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>272.4217836655541</v>
@@ -23548,22 +23548,22 @@
         <v>52.07140607624191</v>
       </c>
       <c r="T14" t="n">
-        <v>211.9606135828359</v>
+        <v>168.263337676195</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5221469772661</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>198.2115837052816</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.3301761740106</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.122498409159</v>
       </c>
       <c r="I16" t="n">
         <v>69.57375468953282</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.1022126635735</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>30.01050548117314</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U16" t="n">
-        <v>275.615660591221</v>
+        <v>112.1499675032568</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,13 +23737,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>170.8051068563498</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.6526208037725</v>
@@ -23785,13 +23785,13 @@
         <v>43.36489997156745</v>
       </c>
       <c r="T17" t="n">
-        <v>210.2880856410603</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4915810754176</v>
       </c>
       <c r="V17" t="n">
-        <v>311.5458700983856</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18.34661350129849</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.1587910327543</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>144.1154370654966</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>16.5026847427958</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6063123107888</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.8715918738521964</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>395.6526208037725</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>20.25708470539337</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>112.6383276272807</v>
       </c>
       <c r="D22" t="n">
-        <v>17.90122400499749</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.598728698716</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.41973607793209</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>144.1154370654966</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6063123107888</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,13 +24208,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>388.4136765823115</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>239.5347221536217</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>43.36489997156745</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24460,7 +24460,7 @@
         <v>395.6526208037725</v>
       </c>
       <c r="H26" t="n">
-        <v>268.5088706367226</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>43.36489997156745</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>27.69820944449661</v>
+        <v>210.2880856410603</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4915810754176</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24508,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>287.7433521227911</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.598728698716</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>64.41973607793209</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>132.9591471808843</v>
+        <v>144.1154370654966</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>120.4424388141037</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>364.780471012721</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>215.3784283837235</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.6526208037725</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4915810754176</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.1587910327543</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4424388141036</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>64.41973607793209</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>21.70338385928153</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.36489997156745</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>186.1576671555612</v>
+        <v>210.2880856410603</v>
       </c>
       <c r="U32" t="n">
         <v>256.4915810754176</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>346.2478109914592</v>
       </c>
     </row>
     <row r="33">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>132.9591471808845</v>
+        <v>53.26344619331972</v>
       </c>
       <c r="H34" t="n">
         <v>131.598728698716</v>
       </c>
       <c r="I34" t="n">
-        <v>64.41973607793209</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>144.1154370654966</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>395.6526208037725</v>
       </c>
       <c r="H35" t="n">
-        <v>211.4243041058897</v>
+        <v>233.6306758280842</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>64.41973607793209</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>100.3386630091076</v>
+        <v>144.1154370654966</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>184.8621748920357</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.0413815291453</v>
       </c>
       <c r="G38" t="n">
-        <v>203.8503594315322</v>
+        <v>395.6526208037725</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>268.5088706367226</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>43.36489997156745</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.2880856410603</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>132.9591471808845</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.598728698716</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>132.9591471808843</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.6526208037725</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>43.36489997156745</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4915810754176</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>269.8077122781553</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>369.0002144552085</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.1587910327543</v>
       </c>
       <c r="H43" t="n">
-        <v>131.598728698716</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>64.41973607793209</v>
+        <v>24.35695000267791</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>54.47077247147542</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6063123107888</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.6526208037725</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>268.5088706367226</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>43.36489997156745</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2880856410603</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>190.0446206256174</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>290.7314111640958</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>117.3459754467524</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>64.41973607793209</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>144.1154370654966</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>134.7201400250109</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>295463.9819219993</v>
+        <v>295463.9819219994</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>350651.1865686388</v>
+        <v>350651.1865686387</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>468536.4480247293</v>
+        <v>468536.4480247292</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>419779.1819918887</v>
+        <v>419779.1819918889</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>419779.1819918887</v>
+        <v>419779.1819918888</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>419779.1819918888</v>
+        <v>419779.1819918887</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>419779.1819918887</v>
+        <v>419779.1819918888</v>
       </c>
     </row>
     <row r="15">
@@ -26325,10 +26325,10 @@
         <v>147585.5911529999</v>
       </c>
       <c r="F2" t="n">
-        <v>147585.591153</v>
+        <v>147585.5911529999</v>
       </c>
       <c r="G2" t="n">
-        <v>177433.1200449151</v>
+        <v>177433.1200449152</v>
       </c>
       <c r="H2" t="n">
         <v>177433.1200449152</v>
@@ -26352,7 +26352,7 @@
         <v>206426.0407315895</v>
       </c>
       <c r="O2" t="n">
-        <v>177433.1200449152</v>
+        <v>177433.1200449153</v>
       </c>
       <c r="P2" t="n">
         <v>177433.1200449152</v>
@@ -26389,7 +26389,7 @@
         <v>54502.68315488363</v>
       </c>
       <c r="J3" t="n">
-        <v>88834.75541327076</v>
+        <v>88834.75541327079</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26450,13 +26450,13 @@
         <v>24643.10401254514</v>
       </c>
       <c r="M4" t="n">
-        <v>24643.10401254516</v>
+        <v>24643.10401254514</v>
       </c>
       <c r="N4" t="n">
         <v>24643.10401254514</v>
       </c>
       <c r="O4" t="n">
-        <v>11010.91925271544</v>
+        <v>11010.91925271545</v>
       </c>
       <c r="P4" t="n">
         <v>11010.91925271545</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116549.4026813098</v>
+        <v>-116549.4026813099</v>
       </c>
       <c r="C6" t="n">
-        <v>25641.8979784</v>
+        <v>25641.89797840009</v>
       </c>
       <c r="D6" t="n">
         <v>25641.89797840006</v>
       </c>
       <c r="E6" t="n">
-        <v>-168110.3089526965</v>
+        <v>-168835.737289285</v>
       </c>
       <c r="F6" t="n">
-        <v>101514.2873782003</v>
+        <v>100788.8590416117</v>
       </c>
       <c r="G6" t="n">
-        <v>17094.91888476029</v>
+        <v>16493.85525188814</v>
       </c>
       <c r="H6" t="n">
-        <v>123929.5662164547</v>
+        <v>123328.5025835824</v>
       </c>
       <c r="I6" t="n">
-        <v>83160.37576738981</v>
+        <v>82765.32117220908</v>
       </c>
       <c r="J6" t="n">
-        <v>43148.14002506202</v>
+        <v>42667.88022838429</v>
       </c>
       <c r="K6" t="n">
-        <v>131982.8954383328</v>
+        <v>131502.635641655</v>
       </c>
       <c r="L6" t="n">
-        <v>131982.8954383328</v>
+        <v>131502.6356416551</v>
       </c>
       <c r="M6" t="n">
-        <v>131982.8954383328</v>
+        <v>131502.6356416551</v>
       </c>
       <c r="N6" t="n">
-        <v>131982.8954383328</v>
+        <v>131502.6356416551</v>
       </c>
       <c r="O6" t="n">
-        <v>123929.5662164547</v>
+        <v>123328.5025835825</v>
       </c>
       <c r="P6" t="n">
-        <v>123929.5662164546</v>
+        <v>123328.5025835824</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120.1876102790537</v>
+        <v>120.1876102790536</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>204.9581761308194</v>
       </c>
       <c r="J4" t="n">
-        <v>339.5252916683385</v>
+        <v>339.5252916683386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>120.1876102790537</v>
+        <v>120.1876102790536</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>73.13130200746645</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>230.443291597313</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>144.6807530643309</v>
+        <v>59.53665345323623</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>148.6918276282723</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>271.4525110318011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>32.45688140729075</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27785,16 +27785,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>5.923136144706319</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>116.6821446085287</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>12.57673674162123</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.56785030804879</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>57.23491851164249</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>370.2350542247758</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35096,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35175,10 +35175,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35254,25 +35254,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35333,22 +35333,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35415,13 +35415,13 @@
         <v>171.6180187748791</v>
       </c>
       <c r="L11" t="n">
-        <v>212.9073277935339</v>
+        <v>212.9073277935341</v>
       </c>
       <c r="M11" t="n">
         <v>236.900425020524</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691254</v>
       </c>
       <c r="O11" t="n">
         <v>227.318026873075</v>
@@ -35433,7 +35433,7 @@
         <v>145.6939384646737</v>
       </c>
       <c r="R11" t="n">
-        <v>84.74907675180566</v>
+        <v>84.74907675180543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>51.18057382505155</v>
       </c>
       <c r="J12" t="n">
-        <v>68.20026375968141</v>
+        <v>396.0369556447444</v>
       </c>
       <c r="K12" t="n">
-        <v>116.5651135434841</v>
+        <v>234.3326195614122</v>
       </c>
       <c r="L12" t="n">
         <v>156.7361801876899</v>
       </c>
       <c r="M12" t="n">
-        <v>182.903729511016</v>
+        <v>182.9037295110159</v>
       </c>
       <c r="N12" t="n">
-        <v>424.2958575201044</v>
+        <v>187.7446469841395</v>
       </c>
       <c r="O12" t="n">
         <v>171.7496730964874</v>
@@ -35509,10 +35509,10 @@
         <v>137.8442543785809</v>
       </c>
       <c r="Q12" t="n">
-        <v>182.8418794336455</v>
+        <v>92.14523357605344</v>
       </c>
       <c r="R12" t="n">
-        <v>163.1751954986662</v>
+        <v>44.81885398923214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.78665376469155</v>
+        <v>130.2408812037722</v>
       </c>
       <c r="K13" t="n">
-        <v>70.31161567606507</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L13" t="n">
-        <v>424.2958575201043</v>
+        <v>278.1508813567862</v>
       </c>
       <c r="M13" t="n">
         <v>94.86566424901332</v>
@@ -35582,13 +35582,13 @@
         <v>92.60997078835715</v>
       </c>
       <c r="O13" t="n">
-        <v>424.2958575201044</v>
+        <v>85.54029738117845</v>
       </c>
       <c r="P13" t="n">
         <v>424.2115665691178</v>
       </c>
       <c r="Q13" t="n">
-        <v>100.6552546007078</v>
+        <v>220.5677709677748</v>
       </c>
       <c r="R13" t="n">
         <v>6.007722421746784</v>
@@ -35646,22 +35646,22 @@
         <v>51.60081105582554</v>
       </c>
       <c r="J14" t="n">
-        <v>114.50814005872</v>
+        <v>114.5081400587199</v>
       </c>
       <c r="K14" t="n">
         <v>171.6180187748791</v>
       </c>
       <c r="L14" t="n">
-        <v>212.9073277935339</v>
+        <v>212.907327793534</v>
       </c>
       <c r="M14" t="n">
         <v>236.900425020524</v>
       </c>
       <c r="N14" t="n">
-        <v>240.7337215691254</v>
+        <v>240.7337215691251</v>
       </c>
       <c r="O14" t="n">
-        <v>227.318026873075</v>
+        <v>227.3180268730753</v>
       </c>
       <c r="P14" t="n">
         <v>194.0106767477459</v>
@@ -35670,7 +35670,7 @@
         <v>145.6939384646737</v>
       </c>
       <c r="R14" t="n">
-        <v>84.74907675180566</v>
+        <v>84.74907675180543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>51.18057382505155</v>
       </c>
       <c r="J15" t="n">
-        <v>395.4481201532384</v>
+        <v>396.0369556447444</v>
       </c>
       <c r="K15" t="n">
-        <v>116.5651135434841</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L15" t="n">
         <v>156.7361801876899</v>
@@ -35737,19 +35737,19 @@
         <v>182.903729511016</v>
       </c>
       <c r="N15" t="n">
-        <v>187.7446469841394</v>
+        <v>187.7446469841393</v>
       </c>
       <c r="O15" t="n">
         <v>171.7496730964874</v>
       </c>
       <c r="P15" t="n">
-        <v>137.8442543785809</v>
+        <v>137.8442543785807</v>
       </c>
       <c r="Q15" t="n">
         <v>92.14523357605344</v>
       </c>
       <c r="R15" t="n">
-        <v>163.1751954986662</v>
+        <v>162.5863600071607</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>42.78665376469155</v>
       </c>
       <c r="K16" t="n">
-        <v>70.31161567606507</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L16" t="n">
-        <v>164.1760175488598</v>
+        <v>365.6051087958668</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>94.86566424901332</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>92.60997078835715</v>
       </c>
       <c r="O16" t="n">
-        <v>424.2958575201044</v>
+        <v>85.54029738117845</v>
       </c>
       <c r="P16" t="n">
-        <v>73.19450195261106</v>
+        <v>424.2115665691178</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.67607918562089</v>
+        <v>220.5677709677748</v>
       </c>
       <c r="R16" t="n">
         <v>6.007722421746784</v>
@@ -35889,13 +35889,13 @@
         <v>220.2192354907314</v>
       </c>
       <c r="L17" t="n">
-        <v>273.2014347431077</v>
+        <v>273.2014347431078</v>
       </c>
       <c r="M17" t="n">
-        <v>303.9892364325885</v>
+        <v>303.9892364325884</v>
       </c>
       <c r="N17" t="n">
-        <v>308.9081000890299</v>
+        <v>308.9081000890296</v>
       </c>
       <c r="O17" t="n">
         <v>291.6931593116474</v>
@@ -35904,7 +35904,7 @@
         <v>248.9533629127407</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.9536076302757</v>
+        <v>186.9536076302759</v>
       </c>
       <c r="R17" t="n">
         <v>108.7495184017348</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>31.89203388801153</v>
+        <v>58.21897647433234</v>
       </c>
       <c r="J18" t="n">
-        <v>87.51417859638936</v>
+        <v>87.51417859638934</v>
       </c>
       <c r="K18" t="n">
-        <v>279.3774187343054</v>
+        <v>149.5756702745121</v>
       </c>
       <c r="L18" t="n">
         <v>201.1229474682816</v>
@@ -35977,16 +35977,16 @@
         <v>240.9128302579867</v>
       </c>
       <c r="O18" t="n">
-        <v>220.3881735443263</v>
+        <v>220.3881735443262</v>
       </c>
       <c r="P18" t="n">
         <v>176.8809390339165</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.2402234747371</v>
+        <v>118.2402234747374</v>
       </c>
       <c r="R18" t="n">
-        <v>57.51129066480144</v>
+        <v>160.9860965382738</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>142.3578106905977</v>
+        <v>54.90358325151708</v>
       </c>
       <c r="K19" t="n">
-        <v>102.8178702105215</v>
+        <v>90.22345299657815</v>
       </c>
       <c r="L19" t="n">
-        <v>115.454956987953</v>
+        <v>537.8891809959945</v>
       </c>
       <c r="M19" t="n">
         <v>544.4834677991579</v>
       </c>
       <c r="N19" t="n">
-        <v>544.4834677991579</v>
+        <v>222.0978884441404</v>
       </c>
       <c r="O19" t="n">
         <v>533.6731406256918</v>
@@ -36123,13 +36123,13 @@
         <v>146.9361739589553</v>
       </c>
       <c r="K20" t="n">
-        <v>220.2192354907314</v>
+        <v>220.2192354907313</v>
       </c>
       <c r="L20" t="n">
-        <v>273.2014347431077</v>
+        <v>273.2014347431078</v>
       </c>
       <c r="M20" t="n">
-        <v>303.9892364325885</v>
+        <v>303.9892364325884</v>
       </c>
       <c r="N20" t="n">
         <v>308.9081000890299</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>58.21897647433234</v>
+        <v>31.89203388801153</v>
       </c>
       <c r="J21" t="n">
-        <v>87.51417859638934</v>
+        <v>217.3159270561826</v>
       </c>
       <c r="K21" t="n">
-        <v>149.5756702745121</v>
+        <v>149.5756702745122</v>
       </c>
       <c r="L21" t="n">
         <v>201.1229474682816</v>
@@ -36214,16 +36214,16 @@
         <v>240.9128302579867</v>
       </c>
       <c r="O21" t="n">
-        <v>220.3881735443262</v>
+        <v>220.3881735443263</v>
       </c>
       <c r="P21" t="n">
         <v>176.8809390339165</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.2402234747374</v>
+        <v>118.2402234747371</v>
       </c>
       <c r="R21" t="n">
-        <v>160.9860965382738</v>
+        <v>57.51129066480144</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>142.3578106905978</v>
+        <v>54.90358325151708</v>
       </c>
       <c r="K22" t="n">
-        <v>367.7572454926747</v>
+        <v>95.32841713609849</v>
       </c>
       <c r="L22" t="n">
-        <v>115.454956987953</v>
+        <v>537.8891809959945</v>
       </c>
       <c r="M22" t="n">
         <v>121.731064164319</v>
       </c>
       <c r="N22" t="n">
-        <v>181.3877397531826</v>
+        <v>118.8365715407982</v>
       </c>
       <c r="O22" t="n">
         <v>533.6731406256918</v>
@@ -36299,7 +36299,7 @@
         <v>444.9398203807068</v>
       </c>
       <c r="Q22" t="n">
-        <v>234.918939477888</v>
+        <v>234.9189394778878</v>
       </c>
       <c r="R22" t="n">
         <v>13.71382159132876</v>
@@ -36363,7 +36363,7 @@
         <v>220.2192354907314</v>
       </c>
       <c r="L23" t="n">
-        <v>273.2014347431078</v>
+        <v>749.4416439299771</v>
       </c>
       <c r="M23" t="n">
         <v>303.9892364325885</v>
@@ -36372,16 +36372,16 @@
         <v>308.9081000890299</v>
       </c>
       <c r="O23" t="n">
-        <v>291.6931593116474</v>
+        <v>291.6931593116472</v>
       </c>
       <c r="P23" t="n">
-        <v>508.4859532907374</v>
+        <v>248.9533629127404</v>
       </c>
       <c r="Q23" t="n">
-        <v>738.9725833460284</v>
+        <v>351.4022728674017</v>
       </c>
       <c r="R23" t="n">
-        <v>108.7495184017348</v>
+        <v>279.6122100714892</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>31.89203388801153</v>
+        <v>58.21897647433234</v>
       </c>
       <c r="J24" t="n">
-        <v>87.51417859638936</v>
+        <v>190.9889844698617</v>
       </c>
       <c r="K24" t="n">
         <v>149.5756702745122</v>
@@ -36451,16 +36451,16 @@
         <v>240.9128302579867</v>
       </c>
       <c r="O24" t="n">
-        <v>220.3881735443264</v>
+        <v>220.3881735443263</v>
       </c>
       <c r="P24" t="n">
         <v>176.8809390339165</v>
       </c>
       <c r="Q24" t="n">
-        <v>129.6856304250962</v>
+        <v>118.2402234747371</v>
       </c>
       <c r="R24" t="n">
-        <v>175.8676321742355</v>
+        <v>57.51129066480144</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>66.33071019353093</v>
       </c>
       <c r="J26" t="n">
-        <v>146.9361739589553</v>
+        <v>451.9678583436353</v>
       </c>
       <c r="K26" t="n">
-        <v>220.2192354907314</v>
+        <v>220.2192354907313</v>
       </c>
       <c r="L26" t="n">
         <v>273.2014347431077</v>
@@ -36615,7 +36615,7 @@
         <v>248.9533629127407</v>
       </c>
       <c r="Q26" t="n">
-        <v>491.985292014956</v>
+        <v>186.9536076302761</v>
       </c>
       <c r="R26" t="n">
         <v>279.6122100714892</v>
@@ -36755,13 +36755,13 @@
         <v>54.90358325151708</v>
       </c>
       <c r="K28" t="n">
-        <v>90.22345299657812</v>
+        <v>294.3884211770866</v>
       </c>
       <c r="L28" t="n">
         <v>537.8891809959945</v>
       </c>
       <c r="M28" t="n">
-        <v>585.8561825288778</v>
+        <v>121.731064164319</v>
       </c>
       <c r="N28" t="n">
         <v>565.5626353363987</v>
@@ -36770,7 +36770,7 @@
         <v>533.6731406256918</v>
       </c>
       <c r="P28" t="n">
-        <v>184.9796701966566</v>
+        <v>444.9398203807068</v>
       </c>
       <c r="Q28" t="n">
         <v>65.02724769573388</v>
@@ -36831,10 +36831,10 @@
         <v>66.33071019353093</v>
       </c>
       <c r="J29" t="n">
-        <v>586.5873734063472</v>
+        <v>146.9361739589553</v>
       </c>
       <c r="K29" t="n">
-        <v>256.4624120977741</v>
+        <v>220.2192354907314</v>
       </c>
       <c r="L29" t="n">
         <v>273.2014347431077</v>
@@ -36849,10 +36849,10 @@
         <v>291.6931593116474</v>
       </c>
       <c r="P29" t="n">
-        <v>248.9533629127404</v>
+        <v>248.9533629127407</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.9536076302761</v>
+        <v>662.8479836847105</v>
       </c>
       <c r="R29" t="n">
         <v>108.7495184017348</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>31.89203388801153</v>
+        <v>58.21897647433234</v>
       </c>
       <c r="J30" t="n">
-        <v>87.51417859638933</v>
+        <v>190.9889844698617</v>
       </c>
       <c r="K30" t="n">
-        <v>149.5756702745121</v>
+        <v>149.5756702745122</v>
       </c>
       <c r="L30" t="n">
         <v>201.1229474682816</v>
@@ -36925,13 +36925,13 @@
         <v>240.9128302579867</v>
       </c>
       <c r="O30" t="n">
-        <v>220.3881735443264</v>
+        <v>220.3881735443263</v>
       </c>
       <c r="P30" t="n">
         <v>176.8809390339165</v>
       </c>
       <c r="Q30" t="n">
-        <v>248.0419719345302</v>
+        <v>118.2402234747371</v>
       </c>
       <c r="R30" t="n">
         <v>57.51129066480144</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>142.3578106905977</v>
+        <v>54.90358325151708</v>
       </c>
       <c r="K31" t="n">
-        <v>367.7572454926747</v>
+        <v>90.22345299657812</v>
       </c>
       <c r="L31" t="n">
-        <v>537.8891809959944</v>
+        <v>277.9290308119444</v>
       </c>
       <c r="M31" t="n">
-        <v>585.8561825288775</v>
+        <v>585.8561825288776</v>
       </c>
       <c r="N31" t="n">
-        <v>194.6311059863119</v>
+        <v>565.5626353363987</v>
       </c>
       <c r="O31" t="n">
-        <v>109.7648080743973</v>
+        <v>533.6731406256918</v>
       </c>
       <c r="P31" t="n">
-        <v>444.939820380707</v>
+        <v>444.9398203807068</v>
       </c>
       <c r="Q31" t="n">
-        <v>234.9189394778878</v>
+        <v>65.02724769573388</v>
       </c>
       <c r="R31" t="n">
         <v>13.71382159132876</v>
@@ -37077,19 +37077,19 @@
         <v>273.2014347431077</v>
       </c>
       <c r="M32" t="n">
-        <v>303.9892364325885</v>
+        <v>424.1206344978416</v>
       </c>
       <c r="N32" t="n">
-        <v>308.9081000890299</v>
+        <v>664.6710780782114</v>
       </c>
       <c r="O32" t="n">
         <v>291.6931593116474</v>
       </c>
       <c r="P32" t="n">
-        <v>248.9533629127407</v>
+        <v>248.9533629127404</v>
       </c>
       <c r="Q32" t="n">
-        <v>662.8479836847105</v>
+        <v>186.9536076302761</v>
       </c>
       <c r="R32" t="n">
         <v>108.7495184017348</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>142.3578106905977</v>
+        <v>54.90358325151708</v>
       </c>
       <c r="K34" t="n">
-        <v>93.82613998995436</v>
+        <v>90.22345299657812</v>
       </c>
       <c r="L34" t="n">
-        <v>537.8891809959945</v>
+        <v>277.9290308119444</v>
       </c>
       <c r="M34" t="n">
         <v>585.8561825288776</v>
@@ -37244,7 +37244,7 @@
         <v>533.6731406256918</v>
       </c>
       <c r="P34" t="n">
-        <v>93.92275576419979</v>
+        <v>444.9398203807068</v>
       </c>
       <c r="Q34" t="n">
         <v>65.02724769573388</v>
@@ -37311,7 +37311,7 @@
         <v>220.2192354907314</v>
       </c>
       <c r="L35" t="n">
-        <v>664.6710780782116</v>
+        <v>273.2014347431077</v>
       </c>
       <c r="M35" t="n">
         <v>303.9892364325885</v>
@@ -37323,13 +37323,13 @@
         <v>291.6931593116474</v>
       </c>
       <c r="P35" t="n">
-        <v>248.9533629127404</v>
+        <v>248.9533629127407</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.9536076302761</v>
+        <v>662.8479836847105</v>
       </c>
       <c r="R35" t="n">
-        <v>193.1742511210655</v>
+        <v>108.7495184017348</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>58.21897647433234</v>
+        <v>43.33744083837063</v>
       </c>
       <c r="J36" t="n">
-        <v>190.9889844698617</v>
+        <v>87.51417859638934</v>
       </c>
       <c r="K36" t="n">
-        <v>149.5756702745122</v>
+        <v>149.5756702745121</v>
       </c>
       <c r="L36" t="n">
         <v>201.1229474682816</v>
@@ -37408,7 +37408,7 @@
         <v>118.2402234747371</v>
       </c>
       <c r="R36" t="n">
-        <v>57.51129066480144</v>
+        <v>175.8676321742355</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.969237413765</v>
+        <v>54.90358325151708</v>
       </c>
       <c r="K37" t="n">
-        <v>367.7572454926747</v>
+        <v>90.22345299657812</v>
       </c>
       <c r="L37" t="n">
-        <v>115.454956987953</v>
+        <v>459.0544036462975</v>
       </c>
       <c r="M37" t="n">
         <v>585.8561825288776</v>
@@ -37542,10 +37542,10 @@
         <v>66.33071019353093</v>
       </c>
       <c r="J38" t="n">
-        <v>451.9678583436353</v>
+        <v>586.5873734063472</v>
       </c>
       <c r="K38" t="n">
-        <v>220.2192354907313</v>
+        <v>220.2192354907314</v>
       </c>
       <c r="L38" t="n">
         <v>273.2014347431077</v>
@@ -37560,13 +37560,13 @@
         <v>291.6931593116474</v>
       </c>
       <c r="P38" t="n">
-        <v>248.9533629127407</v>
+        <v>248.9533629127404</v>
       </c>
       <c r="Q38" t="n">
         <v>186.9536076302761</v>
       </c>
       <c r="R38" t="n">
-        <v>279.6122100714892</v>
+        <v>144.9926950087774</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>31.89203388801153</v>
+        <v>43.33744083837063</v>
       </c>
       <c r="J39" t="n">
-        <v>87.51417859638933</v>
+        <v>87.51417859638934</v>
       </c>
       <c r="K39" t="n">
         <v>149.5756702745121</v>
@@ -37636,13 +37636,13 @@
         <v>240.9128302579867</v>
       </c>
       <c r="O39" t="n">
-        <v>220.3881735443264</v>
+        <v>220.3881735443263</v>
       </c>
       <c r="P39" t="n">
         <v>176.8809390339165</v>
       </c>
       <c r="Q39" t="n">
-        <v>129.6856304250962</v>
+        <v>118.2402234747371</v>
       </c>
       <c r="R39" t="n">
         <v>175.8676321742355</v>
@@ -37718,10 +37718,10 @@
         <v>533.6731406256918</v>
       </c>
       <c r="P40" t="n">
-        <v>184.9796701966566</v>
+        <v>93.92275576419979</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.02724769573388</v>
+        <v>156.0841621281907</v>
       </c>
       <c r="R40" t="n">
         <v>13.71382159132876</v>
@@ -37782,19 +37782,19 @@
         <v>146.9361739589554</v>
       </c>
       <c r="K41" t="n">
-        <v>220.2192354907313</v>
+        <v>220.2192354907314</v>
       </c>
       <c r="L41" t="n">
         <v>273.2014347431077</v>
       </c>
       <c r="M41" t="n">
-        <v>303.9892364325885</v>
+        <v>303.9892364325884</v>
       </c>
       <c r="N41" t="n">
         <v>308.9081000890299</v>
       </c>
       <c r="O41" t="n">
-        <v>291.6931593116472</v>
+        <v>291.6931593116474</v>
       </c>
       <c r="P41" t="n">
         <v>248.9533629127407</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>58.21897647433233</v>
+        <v>43.33744083837077</v>
       </c>
       <c r="J42" t="n">
-        <v>190.9889844698618</v>
+        <v>87.51417859638934</v>
       </c>
       <c r="K42" t="n">
-        <v>149.5756702745122</v>
+        <v>149.5756702745121</v>
       </c>
       <c r="L42" t="n">
         <v>201.1229474682816</v>
@@ -37882,7 +37882,7 @@
         <v>118.2402234747371</v>
       </c>
       <c r="R42" t="n">
-        <v>57.51129066480144</v>
+        <v>175.8676321742355</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>142.3578106905977</v>
+        <v>54.90358325151708</v>
       </c>
       <c r="K43" t="n">
-        <v>367.7572454926747</v>
+        <v>265.2201089182524</v>
       </c>
       <c r="L43" t="n">
-        <v>176.2675614932723</v>
+        <v>537.8891809959945</v>
       </c>
       <c r="M43" t="n">
         <v>121.731064164319</v>
       </c>
       <c r="N43" t="n">
-        <v>544.4834677991579</v>
+        <v>118.8365715407982</v>
       </c>
       <c r="O43" t="n">
-        <v>109.7648080743973</v>
+        <v>533.6731406256918</v>
       </c>
       <c r="P43" t="n">
         <v>444.9398203807068</v>
       </c>
       <c r="Q43" t="n">
-        <v>234.918939477888</v>
+        <v>65.02724769573388</v>
       </c>
       <c r="R43" t="n">
         <v>13.71382159132876</v>
@@ -38019,7 +38019,7 @@
         <v>146.9361739589554</v>
       </c>
       <c r="K44" t="n">
-        <v>220.2192354907313</v>
+        <v>220.2192354907314</v>
       </c>
       <c r="L44" t="n">
         <v>273.2014347431077</v>
@@ -38031,7 +38031,7 @@
         <v>308.9081000890299</v>
       </c>
       <c r="O44" t="n">
-        <v>291.6931593116474</v>
+        <v>291.6931593116472</v>
       </c>
       <c r="P44" t="n">
         <v>248.9533629127407</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>31.89203388801153</v>
+        <v>58.21897647433234</v>
       </c>
       <c r="J45" t="n">
-        <v>87.51417859638936</v>
+        <v>190.9889844698618</v>
       </c>
       <c r="K45" t="n">
-        <v>279.3774187343054</v>
+        <v>149.5756702745122</v>
       </c>
       <c r="L45" t="n">
         <v>201.1229474682816</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>54.90358325151708</v>
+        <v>131.435076177585</v>
       </c>
       <c r="K46" t="n">
-        <v>90.22345299657815</v>
+        <v>367.7572454926747</v>
       </c>
       <c r="L46" t="n">
-        <v>537.8891809959945</v>
+        <v>115.454956987953</v>
       </c>
       <c r="M46" t="n">
         <v>544.4834677991579</v>
@@ -38192,10 +38192,10 @@
         <v>109.7648080743973</v>
       </c>
       <c r="P46" t="n">
-        <v>195.4455089604769</v>
+        <v>93.92275576420002</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.02724769573388</v>
+        <v>234.9189394778878</v>
       </c>
       <c r="R46" t="n">
         <v>13.71382159132876</v>
